--- a/DeepCGSR_triet/results/Digital_Music_5/results_DigitalMusic.xlsx
+++ b/DeepCGSR_triet/results/Digital_Music_5/results_DigitalMusic.xlsx
@@ -435,82 +435,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.973</v>
+        <v>0.9811</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6204</v>
+        <v>0.7015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9719</v>
+        <v>0.9789</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5944</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9668</v>
+        <v>0.9808</v>
       </c>
       <c r="B4" t="n">
-        <v>0.624</v>
+        <v>0.6981000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9775</v>
+        <v>0.9821</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6166</v>
+        <v>0.6996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9707</v>
+        <v>0.9799</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6052</v>
+        <v>0.6942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9807</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6222</v>
+        <v>0.7186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9747</v>
+        <v>0.9809</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6062</v>
+        <v>0.6753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9668</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6399</v>
+        <v>0.6613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9685</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6163</v>
+        <v>0.6944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9741</v>
+        <v>0.9795</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6202</v>
+        <v>0.7221</v>
       </c>
     </row>
   </sheetData>
